--- a/biology/Médecine/Paul_Vidart/Paul_Vidart.xlsx
+++ b/biology/Médecine/Paul_Vidart/Paul_Vidart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Vidart, né le 19 mars 1817 à Nancy et mort le 26 décembre 1873 à Genève[1], est un médecin français, connu pour être le fondateur de la station thermale de Divonne-les-Bains dans les années 1845-1850. Il est également l'auteur de plusieurs publications médicales en particulier au sujet d'hydrothérapie[1]. Il est inhumé au cimetière de Divonne-les-Bains.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Vidart, né le 19 mars 1817 à Nancy et mort le 26 décembre 1873 à Genève, est un médecin français, connu pour être le fondateur de la station thermale de Divonne-les-Bains dans les années 1845-1850. Il est également l'auteur de plusieurs publications médicales en particulier au sujet d'hydrothérapie. Il est inhumé au cimetière de Divonne-les-Bains.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le père de Charles Vidart, maire de Divonne-les-Bains de 1879 à 1888[2] et le grand-père de l'aviateur René Vidart[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père de Charles Vidart, maire de Divonne-les-Bains de 1879 à 1888 et le grand-père de l'aviateur René Vidart.
 </t>
         </is>
       </c>
@@ -568,10 +584,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un buste de Paul Vidart réalisé par Aimé Charles Irvoy en 1907 est situé Parc de la Gare à Divonne-les-Bains.
-Des thermes de Divonne-les-Bains se nomment « thermes Paul-Vidart »[4].
+Des thermes de Divonne-les-Bains se nomment « thermes Paul-Vidart ».
 Membre de l'Académie de médecine et de chirurgie de Gênes (I855)
 Membre correspondant de la Société impériale de médecine de Lyon (1863)
 Chevalier de la Légion d’honneur (1863)
